--- a/Computer/KnownCards.xlsx
+++ b/Computer/KnownCards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4805EE5E-3A3F-45F0-AF28-B1885061148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82633E50-36AE-4FAC-9837-860B4AB762EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>CPU4</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>CPU5</t>
     <phoneticPr fontId="1"/>
@@ -71,30 +67,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This one used 2901s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DSK 1 / AUT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Could support up to 3 Phoenix</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Three CPU boards and one DMA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4k</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Core memory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>16k</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,6 +120,116 @@
   </si>
   <si>
     <t xml:space="preserve">Mystery Tape Reader </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Card Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU4-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU4-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU4-DMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ports/Size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 cards sandwhiced</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based CPU evolution of the CPU4. Implemented a more in-depth ISA while retaining full CPU4 backwards compatibility.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multiwire AM2901 based for CDC built CMD drives (Phoenix, Lark, etc.). Could support up to 3 drives.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based for CDC Floppy and Finch drives (1, 2 or 3 platter).
+Could support 1 floppy and 3 Finch drives.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based Smart MUX card. Never made it to production?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 cards, both into BPN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multiwire AM2901 based CPU evolution of the CPU5. Even further evolved ISA, full backwards compatibility.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The original CPU4 was based on the EE200 design (and built by David Fedder?), and was name because it used four cards plugged into a fully passive backplane. There were three full TTL based CPU cards and one TTL based DMA card.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISK CONTROL CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERIAL COMMUNICATION CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRINTER INTERFACE CARD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MYSTERY CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disk controller cards for the Hawk drive. Could support up to 4 Hawk, Falcon or Pertec drives. 
+Early DSK/AUT cards had an EPROM containing the CPU4 bootstrap code.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 cards, all into BPN (Backplane)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Standard MUX card using four UART chips.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Core memory used with early CPU4 systems</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -147,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +252,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,14 +290,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,157 +631,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:D25"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
+        <v>28</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" ht="7.5" customHeight="1"/>
     <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" ht="7.5" customHeight="1">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" ht="7.5" customHeight="1">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="7.5" customHeight="1"/>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-    </row>
+      <c r="B21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="7.5" customHeight="1"/>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
+      <c r="B25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="7.5" customHeight="1"/>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="7.5" customHeight="1"/>
+    <row r="30" spans="2:4">
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="7.5" customHeight="1"/>
+    <row r="32" spans="2:4">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="81" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Computer/KnownCards.xlsx
+++ b/Computer/KnownCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82633E50-36AE-4FAC-9837-860B4AB762EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077AD86-DC15-45AC-9F75-4F7093B1FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>CPU5</t>
     <phoneticPr fontId="1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Eldorado built</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DRAM (CPU5 and CPU6)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,26 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Only one made</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Paper Tape Reader</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Punch Card Reader</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mystery Tape Reader </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Card Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Notes</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,10 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ports/Size</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CPU5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,11 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AM2901 based for CDC Floppy and Finch drives (1, 2 or 3 platter).
-Could support 1 floppy and 3 Finch drives.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AM2901 based Smart MUX card. Never made it to production?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -184,10 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Multiwire AM2901 based CPU evolution of the CPU5. Even further evolved ISA, full backwards compatibility.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>The original CPU4 was based on the EE200 design (and built by David Fedder?), and was name because it used four cards plugged into a fully passive backplane. There were three full TTL based CPU cards and one TTL based DMA card.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,40 +159,183 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DISK CONTROL CARDS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SERIAL COMMUNICATION CARDS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MEMORY CARDS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PRINTER INTERFACE CARD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MYSTERY CARDS</t>
+    <t>4 cards, all into BPN (Backplane)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Standard MUX card using four UART chips.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Core memory used with early CPU4 systems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FTC?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMD (old)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU6</t>
+  </si>
+  <si>
+    <t>CPU6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTERFACE CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-port</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MUX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STORAGE CONTROL CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Config.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Part Number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disk 1 / Autoload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disk 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based CPU evolution of the CPU5. Primary differences are updates to microcode and minor changes to some hardware. The majority of CPU6s built were the 2-card variants.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multiwire version of the 2-card CPU6. Aside from the change to multiwire, it should be the same circuit design and chipset.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 multiwire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The first CPU
+(4 card CPU = CPU4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The second CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The third CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based revision of the previous CMD board. 56-bit firecode checksum eliminated, removing need for separate box with checksum and interface cards. Similar construction technique to CPU5, CPU6, FFC, etc.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cartridge Module Drive controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 cards into BPN (plus 4 cards in box)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based CMD controller cards. There were four additional cards plus an interface card in a separate box outside the system that performed the 56-bit firecode checksum to repair dropped data bits. This was fantastically expensive and not many were ever built.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Disk controller cards for the Hawk drive. Could support up to 4 Hawk, Falcon or Pertec drives. 
-Early DSK/AUT cards had an EPROM containing the CPU4 bootstrap code.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4 cards, all into BPN (Backplane)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Standard MUX card using four UART chips.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Core memory used with early CPU4 systems</t>
+Early DSK/AUT cards had an EPROM containing the CPU4 bootstrap code. These were the first two cards Centurion produced themselves.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01127?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NON-BACKPLANE CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Front Panel Buttons</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Front Panel LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based for Streaming Tape and Finch drives (1, 2 or 3 platter) or early Wren.
+Could support 1 CDC streaming tape drive and 3 Finch/Wren drives.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based for CDC Floppy. The AM2901 based control cards used a standard Processor/DMA card combined with a unique drive control card.
+Could support 4 floppy drives.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM2901 based for CDC Floppy and Finch drives (1, 2 or 3 platter) or early Wren (the early Wren was plug compatible with the Finch).
+Could support 1 floppy and 3 Finch/Wren drives.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Was essentially two 4-port MUX cards on one board. Speed control was changed to jumper settings to make room.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAM (Centurion made) - Unclear what the purpose of this card was as it was constructed rather late.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -237,6 +343,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="00000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -282,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -305,51 +414,84 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,302 +776,588 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:D38"/>
+  <dimension ref="B2:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="95.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="131.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="15"/>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="15"/>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="15"/>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="15"/>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="15"/>
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B11" s="15"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="15"/>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="15"/>
+      <c r="C13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B14" s="15"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="16">
+        <v>1119</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F17" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="15">
+        <v>1002</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B19" s="15"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B20" s="15"/>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B21" s="15"/>
+      <c r="C21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B22" s="15"/>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B23" s="15"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="F24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B25" s="15"/>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B26" s="15"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="15">
+        <v>1133</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B30" s="15"/>
+      <c r="C30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="15">
+        <v>1127</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="15">
+        <v>1123</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B34" s="15"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="15"/>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="16">
+        <v>1026</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B40" s="15"/>
+      <c r="C40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="15"/>
+      <c r="C42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="2:4" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:4">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="43" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="16">
+        <v>1006</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" ht="7.5" customHeight="1">
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" ht="7.5" customHeight="1">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="7.5" customHeight="1"/>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="15"/>
+      <c r="C46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="12" t="s">
+    <row r="47" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="15"/>
+      <c r="C48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="15"/>
+      <c r="C50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="15"/>
+      <c r="C52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="15"/>
+      <c r="C54" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="7.5" customHeight="1"/>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="12" t="s">
+      <c r="E54" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="16">
+        <v>1062</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="7.5" customHeight="1"/>
-    <row r="28" spans="2:4">
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="7.5" customHeight="1"/>
-    <row r="30" spans="2:4">
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="7.5" customHeight="1"/>
-    <row r="32" spans="2:4">
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="E56" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F56" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
+    <row r="59" spans="2:6">
+      <c r="B59" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="16">
+        <v>1033</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="16">
+        <v>1039</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:C7"/>
+  <mergeCells count="27">
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B45:F45"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Computer/KnownCards.xlsx
+++ b/Computer/KnownCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077AD86-DC15-45AC-9F75-4F7093B1FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E276EF-4F9F-44D5-A2B3-E5242A13E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>CPU5</t>
     <phoneticPr fontId="1"/>
@@ -336,6 +336,22 @@
   </si>
   <si>
     <t>DRAM (Centurion made) - Unclear what the purpose of this card was as it was constructed rather late.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OTHER CARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diagnostic Card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This was a special card designed for technicians only to aid in diagnosing systems on site</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -344,9 +360,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="00000"/>
+    <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +390,12 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -443,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -455,7 +477,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -463,35 +506,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,162 +804,162 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F61"/>
+  <dimension ref="B2:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="131.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="15"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="15"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="15"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="15"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B8" s="15"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="15"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="15"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B11" s="15"/>
+      <c r="B11" s="8"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="15"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="15"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="16">
+      <c r="B15" s="9">
         <v>1119</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -939,122 +967,122 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="15">
+      <c r="B17" s="8">
         <v>1001</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="15">
+      <c r="B18" s="8">
         <v>1002</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B19" s="15"/>
+      <c r="B19" s="8"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B22" s="15"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B23" s="15"/>
+      <c r="B23" s="8"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B25" s="15"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B26" s="15"/>
+      <c r="B26" s="8"/>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="15">
+      <c r="B27" s="8">
         <v>1133</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1062,100 +1090,100 @@
       </c>
     </row>
     <row r="28" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B28" s="15"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B30" s="15"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B31" s="15"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="15">
+      <c r="B32" s="8">
         <v>1127</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="15">
+      <c r="B33" s="8">
         <v>1123</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B34" s="15"/>
+      <c r="B34" s="8"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="15"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="16">
+      <c r="B38" s="9">
         <v>1026</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -1163,14 +1191,14 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B39" s="15"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B40" s="15"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -1178,14 +1206,14 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B41" s="15"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="15"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -1193,13 +1221,13 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B43" s="15"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="16">
+      <c r="B44" s="9">
         <v>1006</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -1207,20 +1235,20 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="15"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -1228,14 +1256,14 @@
       </c>
     </row>
     <row r="47" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B47" s="15"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="15"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -1243,14 +1271,14 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B49" s="15"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="15"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -1258,14 +1286,14 @@
       </c>
     </row>
     <row r="51" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B51" s="15"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="15"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -1273,14 +1301,14 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B53" s="15"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="15"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -1288,51 +1316,85 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B55" s="15"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="16">
+      <c r="B56" s="9">
         <v>1062</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="13" t="s">
+    <row r="57" spans="2:6">
+      <c r="B57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="16">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="9">
         <v>1033</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D61" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="16">
+    <row r="62" spans="2:6">
+      <c r="B62" s="9">
         <v>1039</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="4" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E32:E33"/>
@@ -1347,17 +1409,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Computer/KnownCards.xlsx
+++ b/Computer/KnownCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E276EF-4F9F-44D5-A2B3-E5242A13E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E1681-15F2-4CF3-93CE-3B968A4B3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>CPU5</t>
     <phoneticPr fontId="1"/>
@@ -84,14 +84,6 @@
   </si>
   <si>
     <t>32k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DRAM (CPU4 only)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DRAM (CPU5 and CPU6)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -352,6 +344,38 @@
   </si>
   <si>
     <t>This was a special card designed for technicians only to aid in diagnosing systems on site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAM - Centurion designed and works on CPU4 systems only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAM - Centurion designed for CPU5 and CPU6 systems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paper Read Interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Used internally for Litton Computer customers to move data files to a newer media</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Finch Floppy Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floppy Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floppy and Streamer Tape Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cartridge Module Drive</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,31 +518,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,10 +828,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F62"/>
+  <dimension ref="B2:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -823,71 +847,71 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" customHeight="1">
       <c r="B8" s="8"/>
@@ -897,24 +921,24 @@
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
+      <c r="D9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" ht="7.5" customHeight="1">
       <c r="B11" s="8"/>
@@ -924,30 +948,30 @@
     <row r="12" spans="2:6">
       <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" ht="7.5" customHeight="1">
       <c r="B14" s="8"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
@@ -958,22 +982,22 @@
       <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="8">
@@ -983,13 +1007,13 @@
         <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -1000,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" ht="7.5" customHeight="1">
       <c r="B19" s="8"/>
@@ -1013,35 +1037,35 @@
     <row r="20" spans="2:6" ht="18.75" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18.75" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" ht="18.75" customHeight="1">
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" ht="7.5" customHeight="1">
       <c r="B23" s="8"/>
@@ -1050,25 +1074,29 @@
     </row>
     <row r="24" spans="2:6" ht="18.75" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18.75" customHeight="1">
       <c r="B25" s="8"/>
       <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" ht="7.5" customHeight="1">
       <c r="B26" s="8"/>
@@ -1082,11 +1110,14 @@
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E27" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="7.5" customHeight="1">
@@ -1094,25 +1125,29 @@
     </row>
     <row r="29" spans="2:6" ht="18.75" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="18.75" customHeight="1">
       <c r="B30" s="8"/>
       <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" ht="7.5" customHeight="1">
       <c r="B31" s="8"/>
@@ -1124,11 +1159,14 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>74</v>
+      <c r="D32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -1136,10 +1174,11 @@
         <v>1123</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6" ht="7.5" customHeight="1">
       <c r="B34" s="8"/>
@@ -1147,116 +1186,119 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B37" s="8"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="9">
+      <c r="B38" s="8"/>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="9">
         <v>1026</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B40" s="8"/>
-      <c r="C40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="7.5" customHeight="1">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" ht="18.75" customHeight="1">
       <c r="B42" s="8"/>
       <c r="C42" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="7.5" customHeight="1">
       <c r="B43" s="8"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="9">
+      <c r="B44" s="8"/>
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="9">
         <v>1006</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="8"/>
       <c r="C46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B47" s="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="8"/>
@@ -1264,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="7.5" customHeight="1">
@@ -1279,10 +1321,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="7.5" customHeight="1">
@@ -1294,107 +1336,111 @@
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="7.5" customHeight="1">
       <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="8"/>
+      <c r="B54" s="8">
+        <v>1003</v>
+      </c>
       <c r="C54" s="4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="7.5" customHeight="1">
       <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="9">
+      <c r="B56" s="8"/>
+      <c r="C56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="9">
         <v>1062</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="11" t="s">
+      <c r="F58" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="11" t="s">
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="9">
+        <v>1033</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="9">
-        <v>1033</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="9">
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="9">
         <v>1039</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>70</v>
+      <c r="D64" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B60:F60"/>
+  <mergeCells count="32">
+    <mergeCell ref="B62:F62"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E32:E33"/>
@@ -1409,6 +1455,23 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Computer/KnownCards.xlsx
+++ b/Computer/KnownCards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E1681-15F2-4CF3-93CE-3B968A4B3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FD153-5764-4D33-9599-C69F38819810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>CPU5</t>
     <phoneticPr fontId="1"/>
@@ -112,10 +112,6 @@
   </si>
   <si>
     <t>CPU4-DMA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPU5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -347,10 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DRAM - Centurion designed and works on CPU4 systems only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DRAM - Centurion designed for CPU5 and CPU6 systems</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -376,6 +368,22 @@
   </si>
   <si>
     <t>Cartridge Module Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daughter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAM - Centurion designed and works on CPU4/CPU5 systems only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A daughter board that contains AMD SRAM chips to replace the discontinued TI SRAM chips originally planned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A daughter board that contains jumper configurations </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -528,22 +536,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,10 +839,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F64"/>
+  <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -847,16 +858,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -864,7 +875,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -876,14 +887,14 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>29</v>
+      <c r="D4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -891,429 +902,448 @@
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" customHeight="1">
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="8"/>
+    <row r="9" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B9" s="8">
+        <v>1022</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="8">
+        <v>1024</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="8">
+        <v>1037</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="8">
+        <v>1038</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B13" s="8"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
+      <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="8"/>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="F14" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B16" s="8"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="9">
+        <v>1119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="8"/>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="9">
-        <v>1119</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="8">
+    <row r="18" spans="2:6">
+      <c r="B18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="8">
         <v>1001</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="8">
-        <v>1002</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B20" s="8"/>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:6" ht="7.5" customHeight="1">
       <c r="B21" s="8"/>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" ht="18.75" customHeight="1">
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B23" s="8"/>
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B24" s="8"/>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B25" s="8"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B25" s="8"/>
-      <c r="C25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="8">
-        <v>1133</v>
-      </c>
+      <c r="D26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B27" s="8"/>
       <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:6" ht="7.5" customHeight="1">
       <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B29" s="8" t="s">
-        <v>66</v>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="8">
+        <v>1133</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="18.75" customHeight="1">
+      <c r="B32" s="8"/>
+      <c r="C32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="8">
+        <v>1127</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B30" s="8"/>
-      <c r="C30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="8">
-        <v>1127</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="13" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="8">
+        <v>1123</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B36" s="8"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="8">
-        <v>1123</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B34" s="8"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="8"/>
-      <c r="C36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B37" s="8"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="8"/>
-      <c r="D38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="C38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B39" s="8"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="9">
+      <c r="B40" s="8"/>
+      <c r="D40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="9">
         <v>1026</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B42" s="8"/>
-      <c r="C42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="7.5" customHeight="1">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" ht="18.75" customHeight="1">
       <c r="B44" s="8"/>
       <c r="C44" s="4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="7.5" customHeight="1">
       <c r="B45" s="8"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="9">
+      <c r="B46" s="8"/>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="9">
         <v>1006</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="8"/>
-      <c r="C48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="7.5" customHeight="1">
-      <c r="B49" s="8"/>
+    <row r="49" spans="2:6">
+      <c r="B49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="8"/>
@@ -1321,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="7.5" customHeight="1">
@@ -1336,142 +1366,157 @@
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="7.5" customHeight="1">
       <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="8">
-        <v>1003</v>
-      </c>
+      <c r="B54" s="8"/>
       <c r="C54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="7.5" customHeight="1">
       <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="8"/>
+      <c r="B56" s="8">
+        <v>1003</v>
+      </c>
       <c r="C56" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="7.5" customHeight="1">
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="9">
+      <c r="B58" s="8"/>
+      <c r="C58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="7.5" customHeight="1">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="9">
         <v>1062</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="12" t="s">
+      <c r="F60" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10" t="s">
+      <c r="D62" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="12" t="s">
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="9">
+        <v>1033</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="9">
+        <v>1039</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="9">
-        <v>1033</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="9">
-        <v>1039</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D32:D33"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D34:D35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
